--- a/data/여성사망률추이.xlsx
+++ b/data/여성사망률추이.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\IITPMainProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\PANP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7DCE4-C0DC-4F24-8418-C650A3C2E8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCC0FA3-867A-412B-941C-700D0E6EAEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2220" windowWidth="19890" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>year</t>
+    <t>연도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +466,7 @@
   <dimension ref="A1:CX119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
